--- a/assets/MobSpawnLocs.xlsx
+++ b/assets/MobSpawnLocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0690BA-F48E-4336-A3D4-65DF26571445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D1B21-7B04-4CC4-A4E4-0DDE7F19FAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="15600" activeTab="1" xr2:uid="{273C4160-BD00-465C-92F0-012BEF30B97C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="15600" xr2:uid="{273C4160-BD00-465C-92F0-012BEF30B97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="348">
   <si>
     <t>beach_cold</t>
   </si>
@@ -922,9 +922,6 @@
     <t>Rabbits-Dutch</t>
   </si>
   <si>
-    <t>Rabbits-Chichilla</t>
-  </si>
-  <si>
     <t>Rabbits-Havana</t>
   </si>
   <si>
@@ -1045,19 +1042,34 @@
     <t>Pigs-Old Spot</t>
   </si>
   <si>
-    <t>Pigs-Old-Spot</t>
-  </si>
-  <si>
     <t>Pigs-Yorkshire</t>
   </si>
   <si>
     <t>lammergeier</t>
   </si>
   <si>
-    <t>Peafowl-All</t>
-  </si>
-  <si>
     <t>polar bear</t>
+  </si>
+  <si>
+    <t>White Peafowl</t>
+  </si>
+  <si>
+    <t>India Blue Peafowl</t>
+  </si>
+  <si>
+    <t>Taupe Peafowl</t>
+  </si>
+  <si>
+    <t>Peach Peafowl</t>
+  </si>
+  <si>
+    <t>Charcoal Peafowl</t>
+  </si>
+  <si>
+    <t>Opal Peafowl</t>
+  </si>
+  <si>
+    <t>Purple Peafowl</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED86FC63-C0C6-4445-85D3-DA75F6FA8766}">
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B79" t="s">
         <v>110</v>
@@ -2180,7 +2192,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s">
         <v>126</v>
@@ -2196,7 +2208,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
         <v>128</v>
@@ -2578,7 +2590,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B147" t="s">
         <v>177</v>
@@ -3190,11 +3202,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B52ED-514F-4E93-B4AB-9C9BBFBCA5CB}">
-  <dimension ref="A1:CE28"/>
+  <dimension ref="A1:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CE3" sqref="CE3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CE19" sqref="CE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3282,8 @@
     <col min="79" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" x14ac:dyDescent="0.25">
@@ -3285,20 +3298,11 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>273</v>
-      </c>
       <c r="AC2" t="s">
         <v>285</v>
       </c>
-      <c r="AS2" t="s">
-        <v>302</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>332</v>
-      </c>
       <c r="CE2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.25">
@@ -3311,12 +3315,6 @@
       <c r="I3" t="s">
         <v>265</v>
       </c>
-      <c r="Q3" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3325,17 +3323,8 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>265</v>
-      </c>
       <c r="Q4" t="s">
         <v>273</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>285</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.25">
@@ -3357,23 +3346,8 @@
       <c r="AM5" t="s">
         <v>295</v>
       </c>
-      <c r="AN5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>303</v>
-      </c>
       <c r="BO5" t="s">
-        <v>324</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>332</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.25">
@@ -3383,86 +3357,14 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" t="s">
-        <v>266</v>
-      </c>
-      <c r="M6" t="s">
-        <v>269</v>
-      </c>
-      <c r="N6" t="s">
-        <v>270</v>
-      </c>
-      <c r="O6" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" t="s">
-        <v>272</v>
-      </c>
-      <c r="V6" t="s">
-        <v>278</v>
-      </c>
       <c r="Y6" t="s">
         <v>281</v>
       </c>
-      <c r="Z6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>308</v>
       </c>
       <c r="BF6" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>323</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>333</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>336</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.25">
@@ -3472,77 +3374,11 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M7" t="s">
-        <v>269</v>
-      </c>
-      <c r="N7" t="s">
-        <v>270</v>
-      </c>
-      <c r="O7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P7" t="s">
-        <v>272</v>
-      </c>
-      <c r="T7" t="s">
-        <v>276</v>
-      </c>
-      <c r="V7" t="s">
-        <v>278</v>
-      </c>
       <c r="W7" t="s">
         <v>279</v>
       </c>
-      <c r="Z7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>284</v>
-      </c>
       <c r="AO7" t="s">
         <v>297</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>301</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>302</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>316</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>323</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>333</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>336</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.25">
@@ -3555,33 +3391,12 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" t="s">
-        <v>262</v>
-      </c>
       <c r="G8" t="s">
         <v>263</v>
       </c>
-      <c r="J8" t="s">
-        <v>266</v>
-      </c>
-      <c r="M8" t="s">
-        <v>269</v>
-      </c>
       <c r="N8" t="s">
         <v>270</v>
       </c>
-      <c r="O8" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" t="s">
-        <v>272</v>
-      </c>
-      <c r="V8" t="s">
-        <v>278</v>
-      </c>
       <c r="Y8" t="s">
         <v>281</v>
       </c>
@@ -3591,47 +3406,23 @@
       <c r="AB8" t="s">
         <v>284</v>
       </c>
-      <c r="AO8" t="s">
-        <v>297</v>
-      </c>
       <c r="AP8" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AU8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>308</v>
-      </c>
-      <c r="BF8" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG8" t="s">
         <v>315</v>
       </c>
-      <c r="BG8" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>319</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>323</v>
-      </c>
       <c r="BV8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BY8" t="s">
-        <v>336</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.25">
@@ -3641,68 +3432,23 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>260</v>
-      </c>
-      <c r="V9" t="s">
-        <v>278</v>
-      </c>
       <c r="Y9" t="s">
         <v>281</v>
       </c>
-      <c r="AB9" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>305</v>
-      </c>
       <c r="AX9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BD9" t="s">
-        <v>313</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG9" t="s">
+        <v>312</v>
+      </c>
+      <c r="BH9" t="s">
         <v>316</v>
       </c>
-      <c r="BH9" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>319</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>323</v>
-      </c>
       <c r="BV9" t="s">
+        <v>332</v>
+      </c>
+      <c r="BW9" t="s">
         <v>333</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>334</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>336</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>338</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.25">
@@ -3712,47 +3458,20 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>292</v>
-      </c>
       <c r="AL10" t="s">
         <v>294</v>
       </c>
-      <c r="AM10" t="s">
-        <v>295</v>
-      </c>
       <c r="AN10" t="s">
         <v>296</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>304</v>
       </c>
-      <c r="AV10" t="s">
-        <v>305</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>311</v>
-      </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>324</v>
       </c>
-      <c r="BP10" t="s">
-        <v>325</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>331</v>
+      <c r="CD10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.25">
@@ -3762,32 +3481,14 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="W11" t="s">
-        <v>279</v>
-      </c>
       <c r="AF11" t="s">
         <v>288</v>
       </c>
-      <c r="AI11" t="s">
-        <v>291</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>306</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>310</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>314</v>
-      </c>
       <c r="BL11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX11" t="s">
-        <v>335</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.25">
@@ -3797,18 +3498,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>260</v>
-      </c>
       <c r="F12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
-        <v>263</v>
-      </c>
       <c r="J12" t="s">
         <v>266</v>
       </c>
@@ -3821,15 +3513,6 @@
       <c r="O12" t="s">
         <v>271</v>
       </c>
-      <c r="P12" t="s">
-        <v>272</v>
-      </c>
-      <c r="V12" t="s">
-        <v>278</v>
-      </c>
-      <c r="W12" t="s">
-        <v>279</v>
-      </c>
       <c r="Y12" t="s">
         <v>281</v>
       </c>
@@ -3839,65 +3522,32 @@
       <c r="AB12" t="s">
         <v>284</v>
       </c>
-      <c r="AF12" t="s">
-        <v>288</v>
-      </c>
       <c r="AI12" t="s">
         <v>291</v>
       </c>
-      <c r="AO12" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>299</v>
-      </c>
       <c r="AR12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="BA12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BE12" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="BN12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BV12" t="s">
-        <v>333</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BZ12" t="s">
-        <v>337</v>
-      </c>
-      <c r="CA12" t="s">
+        <v>336</v>
+      </c>
+      <c r="CC12" t="s">
         <v>339</v>
       </c>
-      <c r="CC12" t="s">
-        <v>341</v>
+      <c r="CD12" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.25">
@@ -3908,7 +3558,7 @@
         <v>23</v>
       </c>
       <c r="AZ13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.25">
@@ -3929,26 +3579,14 @@
       <c r="E15" t="s">
         <v>261</v>
       </c>
-      <c r="I15" t="s">
-        <v>265</v>
-      </c>
       <c r="L15" t="s">
         <v>268</v>
       </c>
-      <c r="Q15" t="s">
-        <v>273</v>
-      </c>
       <c r="R15" t="s">
         <v>274</v>
       </c>
       <c r="U15" t="s">
         <v>277</v>
-      </c>
-      <c r="X15" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
@@ -3958,18 +3596,6 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" t="s">
-        <v>268</v>
-      </c>
-      <c r="R16" t="s">
-        <v>274</v>
-      </c>
-      <c r="U16" t="s">
-        <v>277</v>
-      </c>
       <c r="X16" t="s">
         <v>280</v>
       </c>
@@ -3977,119 +3603,59 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" t="s">
-        <v>268</v>
-      </c>
-      <c r="U17" t="s">
-        <v>277</v>
-      </c>
-      <c r="X17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" t="s">
         <v>260</v>
       </c>
-      <c r="H18" t="s">
-        <v>264</v>
-      </c>
-      <c r="N18" t="s">
-        <v>270</v>
-      </c>
       <c r="O18" t="s">
         <v>271</v>
       </c>
-      <c r="V18" t="s">
-        <v>278</v>
-      </c>
       <c r="Y18" t="s">
         <v>281</v>
       </c>
-      <c r="AB18" t="s">
-        <v>284</v>
-      </c>
       <c r="AG18" t="s">
         <v>290</v>
       </c>
-      <c r="AH18" t="s">
-        <v>289</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>296</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AY18" t="s">
-        <v>308</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>310</v>
-      </c>
-      <c r="BB18" t="s">
+        <v>307</v>
+      </c>
+      <c r="BC18" t="s">
         <v>311</v>
       </c>
-      <c r="BC18" t="s">
-        <v>312</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL18" t="s">
+      <c r="BM18" t="s">
         <v>321</v>
       </c>
-      <c r="BM18" t="s">
-        <v>322</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>324</v>
-      </c>
       <c r="BQ18" t="s">
-        <v>326</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>328</v>
-      </c>
-      <c r="BT18" t="s">
+        <v>325</v>
+      </c>
+      <c r="BU18" t="s">
         <v>331</v>
       </c>
       <c r="CB18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -4099,173 +3665,80 @@
       <c r="K19" t="s">
         <v>267</v>
       </c>
-      <c r="O19" t="s">
-        <v>271</v>
-      </c>
-      <c r="S19" t="s">
-        <v>275</v>
-      </c>
       <c r="BI19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" t="s">
-        <v>267</v>
-      </c>
-      <c r="S20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>260</v>
-      </c>
       <c r="H21" t="s">
         <v>264</v>
       </c>
-      <c r="N21" t="s">
-        <v>270</v>
-      </c>
-      <c r="V21" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>283</v>
-      </c>
       <c r="AJ21" t="s">
         <v>292</v>
       </c>
-      <c r="AL21" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>300</v>
-      </c>
       <c r="AT21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BB21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BK21" t="s">
-        <v>320</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>324</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>325</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="BR21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BS21" t="s">
-        <v>330</v>
-      </c>
-      <c r="BT21" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU21" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CA21" t="s">
+        <v>337</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="I22" t="s">
-        <v>265</v>
-      </c>
-      <c r="N22" t="s">
-        <v>270</v>
-      </c>
       <c r="S22" t="s">
         <v>275</v>
       </c>
-      <c r="T22" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>318</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>319</v>
       </c>
       <c r="CD22" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J23" t="s">
-        <v>266</v>
-      </c>
-      <c r="M23" t="s">
-        <v>269</v>
-      </c>
-      <c r="N23" t="s">
-        <v>270</v>
-      </c>
-      <c r="O23" t="s">
-        <v>271</v>
-      </c>
-      <c r="P23" t="s">
-        <v>272</v>
-      </c>
-      <c r="T23" t="s">
-        <v>276</v>
-      </c>
       <c r="V23" t="s">
         <v>278</v>
       </c>
@@ -4275,91 +3748,40 @@
       <c r="Z23" t="s">
         <v>282</v>
       </c>
-      <c r="AB23" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>301</v>
+      <c r="AH23" t="s">
+        <v>289</v>
       </c>
       <c r="AW23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" t="s">
-        <v>264</v>
-      </c>
-      <c r="J24" t="s">
-        <v>266</v>
-      </c>
-      <c r="M24" t="s">
-        <v>269</v>
-      </c>
-      <c r="N24" t="s">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s">
-        <v>271</v>
-      </c>
       <c r="P24" t="s">
         <v>272</v>
       </c>
       <c r="T24" t="s">
         <v>276</v>
       </c>
-      <c r="V24" t="s">
-        <v>278</v>
-      </c>
       <c r="W24" t="s">
         <v>279</v>
       </c>
-      <c r="Y24" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>301</v>
       </c>
-      <c r="AS24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CD24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4367,32 +3789,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="T26" t="s">
-        <v>276</v>
-      </c>
-      <c r="W26" t="s">
-        <v>279</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>302</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>327</v>
-      </c>
-      <c r="BQ28" t="s">
         <v>326</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/assets/MobSpawnLocs.xlsx
+++ b/assets/MobSpawnLocs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D1B21-7B04-4CC4-A4E4-0DDE7F19FAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF786DB-B583-4C7C-8D2E-4F15689C83B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="15600" xr2:uid="{273C4160-BD00-465C-92F0-012BEF30B97C}"/>
+    <workbookView xWindow="19440" yWindow="0" windowWidth="18960" windowHeight="15600" activeTab="1" xr2:uid="{273C4160-BD00-465C-92F0-012BEF30B97C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Mob" sheetId="1" r:id="rId1"/>
+    <sheet name="Spawn" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="374">
   <si>
     <t>beach_cold</t>
   </si>
@@ -91,9 +91,6 @@
     <t>tundra</t>
   </si>
   <si>
-    <t>Biome</t>
-  </si>
-  <si>
     <t>beach_sandy</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>the_end</t>
   </si>
   <si>
-    <t>badger</t>
-  </si>
-  <si>
     <t># #chicken = Creature("minecraft:chicken", CLUSTER, loot_list=default_loot)</t>
   </si>
   <si>
@@ -808,159 +802,6 @@
     <t>zotzpyre = Creature("betteranimalsplus:zotzpyre", LONER, loot_list=default_loot)</t>
   </si>
   <si>
-    <t>boar</t>
-  </si>
-  <si>
-    <t>bobbit_worm</t>
-  </si>
-  <si>
-    <t>brownbear</t>
-  </si>
-  <si>
-    <t>blackbear</t>
-  </si>
-  <si>
-    <t>coyote</t>
-  </si>
-  <si>
-    <t>crab</t>
-  </si>
-  <si>
-    <t>deer</t>
-  </si>
-  <si>
-    <t>eel_freshwater</t>
-  </si>
-  <si>
-    <t>eel_seawater</t>
-  </si>
-  <si>
-    <t>feralwolf</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>goose</t>
-  </si>
-  <si>
-    <t>hirschgeist</t>
-  </si>
-  <si>
-    <t>horseshoecrab</t>
-  </si>
-  <si>
-    <t>jellyfish</t>
-  </si>
-  <si>
-    <t>lamprey</t>
-  </si>
-  <si>
-    <t>moose</t>
-  </si>
-  <si>
-    <t>nautilus</t>
-  </si>
-  <si>
-    <t>pheasant</t>
-  </si>
-  <si>
-    <t>reindeer</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>songbird</t>
-  </si>
-  <si>
-    <t>squirrel</t>
-  </si>
-  <si>
-    <t>tarantula</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>walrus</t>
-  </si>
-  <si>
-    <t>whale</t>
-  </si>
-  <si>
-    <t>zotzpyre (caves too)</t>
-  </si>
-  <si>
-    <t>Goats - Alpine</t>
-  </si>
-  <si>
-    <t>Goats-Fainting</t>
-  </si>
-  <si>
-    <t>Goats - Angora</t>
-  </si>
-  <si>
-    <t>Goats-Kiko</t>
-  </si>
-  <si>
-    <t>Goats-Kinder</t>
-  </si>
-  <si>
-    <t>Goats-Nigerian Dwarf</t>
-  </si>
-  <si>
-    <t>Goats-Pygmy</t>
-  </si>
-  <si>
-    <t>Rabbits-Chinchilla</t>
-  </si>
-  <si>
-    <t>Rabbits-Cottontail</t>
-  </si>
-  <si>
-    <t>Rabbits-Dutch</t>
-  </si>
-  <si>
-    <t>Rabbits-Havana</t>
-  </si>
-  <si>
-    <t>Rabbits-Jack</t>
-  </si>
-  <si>
-    <t>Rabbits-Lop</t>
-  </si>
-  <si>
-    <t>Rabbits-New Zealand</t>
-  </si>
-  <si>
-    <t>Rabbits-Rex</t>
-  </si>
-  <si>
-    <t>Cows-Angus</t>
-  </si>
-  <si>
-    <t>Cows-Friesian</t>
-  </si>
-  <si>
-    <t>Cows-Hereford</t>
-  </si>
-  <si>
-    <t>Cows-Holstein</t>
-  </si>
-  <si>
-    <t>Cows-Jersey</t>
-  </si>
-  <si>
-    <t>Cows-Mooshroom</t>
-  </si>
-  <si>
-    <t>Cows-Highland</t>
-  </si>
-  <si>
-    <t>Cows-Longhorn</t>
-  </si>
-  <si>
     <t>Chicken-Leghorn</t>
   </si>
   <si>
@@ -1003,15 +844,6 @@
     <t>Sheep-Suffolk</t>
   </si>
   <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>villages</t>
-  </si>
-  <si>
-    <t>donkey</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -1021,42 +853,9 @@
     <t>Horses-Draft</t>
   </si>
   <si>
-    <t>hamster</t>
-  </si>
-  <si>
-    <t>hedgehog</t>
-  </si>
-  <si>
-    <t>Pigs-Duroc</t>
-  </si>
-  <si>
-    <t>Pigs-Hampshire</t>
-  </si>
-  <si>
-    <t>Pigs-Large Black</t>
-  </si>
-  <si>
-    <t>Pigs-Large White</t>
-  </si>
-  <si>
-    <t>Pigs-Old Spot</t>
-  </si>
-  <si>
-    <t>Pigs-Yorkshire</t>
-  </si>
-  <si>
-    <t>lammergeier</t>
-  </si>
-  <si>
-    <t>polar bear</t>
-  </si>
-  <si>
     <t>White Peafowl</t>
   </si>
   <si>
-    <t>India Blue Peafowl</t>
-  </si>
-  <si>
     <t>Taupe Peafowl</t>
   </si>
   <si>
@@ -1070,6 +869,285 @@
   </si>
   <si>
     <t>Purple Peafowl</t>
+  </si>
+  <si>
+    <t>forest_hills</t>
+  </si>
+  <si>
+    <t>taiga_hills</t>
+  </si>
+  <si>
+    <t>Cows</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Peafowl</t>
+  </si>
+  <si>
+    <t>Rabbits</t>
+  </si>
+  <si>
+    <t>Goat-Alpine</t>
+  </si>
+  <si>
+    <t>Goat-Angora</t>
+  </si>
+  <si>
+    <t>Goat-Fainting</t>
+  </si>
+  <si>
+    <t>Goat-Kinder</t>
+  </si>
+  <si>
+    <t>Goat-Pygmy</t>
+  </si>
+  <si>
+    <t>Goat-Nigerian Dwarf</t>
+  </si>
+  <si>
+    <t>Goat-Kiko</t>
+  </si>
+  <si>
+    <t>Rabbit-Chinchilla</t>
+  </si>
+  <si>
+    <t>Rabbit-Cottontail</t>
+  </si>
+  <si>
+    <t>Rabbit-Havana</t>
+  </si>
+  <si>
+    <t>Rabbit-Jack</t>
+  </si>
+  <si>
+    <t>Rabbit-Dutch</t>
+  </si>
+  <si>
+    <t>Rabbit-Lop</t>
+  </si>
+  <si>
+    <t>Rabbit-New Zealand</t>
+  </si>
+  <si>
+    <t>Rabbit-Rex</t>
+  </si>
+  <si>
+    <t>Cow-Angus</t>
+  </si>
+  <si>
+    <t>Cow-Friesian</t>
+  </si>
+  <si>
+    <t>Cow-Hereford</t>
+  </si>
+  <si>
+    <t>Cow-Holstein</t>
+  </si>
+  <si>
+    <t>Cow-Jersey</t>
+  </si>
+  <si>
+    <t>Cow-Mooshroom</t>
+  </si>
+  <si>
+    <t>Cow-Highland</t>
+  </si>
+  <si>
+    <t>Cow-Longhorn</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>Pig-Hampshire</t>
+  </si>
+  <si>
+    <t>Pig-Old Spot</t>
+  </si>
+  <si>
+    <t>Pig-Yorkshire</t>
+  </si>
+  <si>
+    <t>Pig-Large Black</t>
+  </si>
+  <si>
+    <t>Pig-Duroc</t>
+  </si>
+  <si>
+    <t>Pig-Large White</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
+    <t>Badger</t>
+  </si>
+  <si>
+    <t>Bobbit Worm</t>
+  </si>
+  <si>
+    <t>Brown Bear</t>
+  </si>
+  <si>
+    <t>Blackbear</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>Eel-Freshwater</t>
+  </si>
+  <si>
+    <t>Eel-Seawater</t>
+  </si>
+  <si>
+    <t>Feralwolf</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>Hirschgeist</t>
+  </si>
+  <si>
+    <t>Horseshoe Crab</t>
+  </si>
+  <si>
+    <t>Jellyfish</t>
+  </si>
+  <si>
+    <t>Lamprey</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>Nautilus</t>
+  </si>
+  <si>
+    <t>Pheasant</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>Walrus</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>Tarantula</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Songbird</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>Hamster</t>
+  </si>
+  <si>
+    <t>Hedgehog</t>
+  </si>
+  <si>
+    <t>Lammergeier</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>.in_cave</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Zotzpyre</t>
+  </si>
+  <si>
+    <t>Grottol</t>
+  </si>
+  <si>
+    <t>Cave Spider</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>Ocelot</t>
+  </si>
+  <si>
+    <t>Foliaath(both)</t>
+  </si>
+  <si>
+    <t>Mule</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Blue Peafowl</t>
+  </si>
+  <si>
+    <t>Frostmaw</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1099,19 +1170,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1126,20 +1197,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED86FC63-C0C6-4445-85D3-DA75F6FA8766}">
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,1731 +1538,1752 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>35</v>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>328</v>
+      <c r="A79" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>328</v>
+      <c r="A95" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>328</v>
+      <c r="A97" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>328</v>
+      <c r="A147" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B222" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B223" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3201,616 +3292,591 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B52ED-514F-4E93-B4AB-9C9BBFBCA5CB}">
-  <dimension ref="A1:CE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4FD3B4-E315-4F9B-BAF8-0564581590F2}">
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CE19" sqref="CE19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
+        <v>283</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" t="s">
+        <v>309</v>
+      </c>
+      <c r="S2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>310</v>
       </c>
       <c r="AC2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S3" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>285</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="G4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" t="s">
+        <v>290</v>
+      </c>
+      <c r="S4" t="s">
+        <v>289</v>
+      </c>
+      <c r="V4" t="s">
+        <v>292</v>
+      </c>
+      <c r="X4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>260</v>
+      </c>
+      <c r="S5" t="s">
+        <v>258</v>
+      </c>
+      <c r="X5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S6" t="s">
+        <v>299</v>
+      </c>
+      <c r="V6" t="s">
+        <v>301</v>
+      </c>
+      <c r="X6" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="S7" t="s">
+        <v>315</v>
+      </c>
+      <c r="V7" t="s">
+        <v>314</v>
+      </c>
+      <c r="X7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K8" t="s">
+        <v>280</v>
+      </c>
+      <c r="S8" t="s">
+        <v>277</v>
+      </c>
+      <c r="V8" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" t="s">
+        <v>364</v>
+      </c>
+      <c r="L9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M9" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>335</v>
+      </c>
+      <c r="R9" t="s">
+        <v>341</v>
+      </c>
+      <c r="S9" t="s">
+        <v>320</v>
+      </c>
+      <c r="T9" t="s">
+        <v>328</v>
+      </c>
+      <c r="U9" t="s">
+        <v>328</v>
+      </c>
+      <c r="V9" t="s">
+        <v>346</v>
+      </c>
+      <c r="W9" t="s">
+        <v>336</v>
+      </c>
+      <c r="X9" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M10" t="s">
+        <v>352</v>
+      </c>
+      <c r="P10" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>341</v>
+      </c>
+      <c r="R10" t="s">
+        <v>342</v>
+      </c>
+      <c r="S10" t="s">
+        <v>325</v>
+      </c>
+      <c r="T10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V10" t="s">
+        <v>349</v>
+      </c>
+      <c r="W10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="X10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" t="s">
+        <v>344</v>
+      </c>
+      <c r="L11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" t="s">
+        <v>344</v>
+      </c>
+      <c r="P11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>342</v>
+      </c>
+      <c r="R11" t="s">
+        <v>369</v>
+      </c>
+      <c r="S11" t="s">
+        <v>332</v>
+      </c>
+      <c r="V11" t="s">
+        <v>350</v>
+      </c>
+      <c r="W11" t="s">
+        <v>363</v>
+      </c>
+      <c r="X11" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" t="s">
+        <v>362</v>
+      </c>
+      <c r="J12" t="s">
+        <v>347</v>
+      </c>
+      <c r="P12" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>369</v>
+      </c>
+      <c r="S12" t="s">
+        <v>348</v>
+      </c>
+      <c r="W12" t="s">
+        <v>370</v>
+      </c>
+      <c r="X12" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J13" t="s">
+        <v>351</v>
+      </c>
+      <c r="S13" t="s">
+        <v>350</v>
+      </c>
+      <c r="W13" t="s">
+        <v>371</v>
+      </c>
+      <c r="X13" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>295</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>308</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>263</v>
-      </c>
-      <c r="N8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>303</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>315</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>332</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>335</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>306</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>312</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>316</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>332</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>296</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>304</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>324</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" t="s">
-        <v>266</v>
-      </c>
-      <c r="M12" t="s">
-        <v>269</v>
-      </c>
-      <c r="N12" t="s">
-        <v>270</v>
-      </c>
-      <c r="O12" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>300</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>309</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>313</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>322</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>332</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>336</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>339</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
+        <v>360</v>
+      </c>
+      <c r="K15" t="s">
+        <v>360</v>
       </c>
       <c r="L15" t="s">
-        <v>268</v>
-      </c>
-      <c r="R15" t="s">
-        <v>274</v>
-      </c>
-      <c r="U15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="X16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>260</v>
-      </c>
-      <c r="O18" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>299</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>321</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>325</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>331</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>338</v>
-      </c>
-      <c r="CD18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>302</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>310</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>319</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>327</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>329</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>331</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>337</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" t="s">
-        <v>275</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>318</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="V23" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>305</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" t="s">
-        <v>272</v>
-      </c>
-      <c r="T24" t="s">
-        <v>276</v>
-      </c>
-      <c r="W24" t="s">
-        <v>279</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>301</v>
-      </c>
-      <c r="CD24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>287</v>
+        <v>357</v>
+      </c>
+      <c r="S15" t="s">
+        <v>359</v>
+      </c>
+      <c r="V15" t="s">
+        <v>359</v>
+      </c>
+      <c r="W15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
